--- a/SupplementaryTables/Table S1.xlsx
+++ b/SupplementaryTables/Table S1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission_RemoveBatchEffectArtifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC7E13B6-EE26-434C-ADD7-2A1C1C8CD79A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F60B834E-AB74-D44A-A4AE-D2CC34489D80}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13000" yWindow="460" windowWidth="35040" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="105">
   <si>
     <t>Table S1: Human islet donor demographic characteristics and islet metadata</t>
   </si>
@@ -297,12 +297,6 @@
     <t>T2D5</t>
   </si>
   <si>
-    <t>NR -&gt; Not Reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IIDP -&gt; Integrated Islet Distribution Program </t>
-  </si>
-  <si>
     <t>pvalue (wilcoxon rank sum)</t>
   </si>
   <si>
@@ -325,6 +319,30 @@
   </si>
   <si>
     <t>HbA1c %</t>
+  </si>
+  <si>
+    <t>ND = Non-diabetic</t>
+  </si>
+  <si>
+    <t>T2D = type 2 diabetic</t>
+  </si>
+  <si>
+    <t>W = white, AA = African American; H = Hispanic</t>
+  </si>
+  <si>
+    <t>BMI = Body Mass Index</t>
+  </si>
+  <si>
+    <t>HbA1c = glycated hemoglobin</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>NR = Not Reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIDP = Integrated Islet Distribution Program </t>
   </si>
 </sst>
 </file>
@@ -717,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +758,7 @@
     <col min="14" max="14" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="41" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.1640625" style="5" customWidth="1"/>
     <col min="19" max="19" width="14" style="5" customWidth="1"/>
     <col min="20" max="20" width="13" style="5" customWidth="1"/>
@@ -749,12 +767,12 @@
     <col min="23" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -786,13 +804,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>10</v>
@@ -801,10 +819,13 @@
         <v>11</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -842,7 +863,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="4">
         <v>97</v>
@@ -853,8 +874,11 @@
       <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -892,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N4" s="4">
         <v>95</v>
@@ -903,8 +927,11 @@
       <c r="P4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -942,7 +969,7 @@
         <v>34</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" s="4">
         <v>95</v>
@@ -953,8 +980,11 @@
       <c r="P5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -992,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N6" s="4">
         <v>95</v>
@@ -1003,8 +1033,11 @@
       <c r="P6" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1042,7 +1075,7 @@
         <v>32</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N7" s="4">
         <v>95</v>
@@ -1053,8 +1086,11 @@
       <c r="P7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1092,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8" s="4">
         <v>95</v>
@@ -1103,8 +1139,11 @@
       <c r="P8" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
@@ -1142,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="4">
         <v>95</v>
@@ -1153,8 +1192,11 @@
       <c r="P9" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1234,7 @@
         <v>24</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N10" s="4">
         <v>92</v>
@@ -1204,7 +1246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1242,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N11" s="4">
         <v>95</v>
@@ -1254,7 +1296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -1292,7 +1334,7 @@
         <v>32</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="4">
         <v>95</v>
@@ -1304,7 +1346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -1342,7 +1384,7 @@
         <v>24</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N13" s="4">
         <v>90</v>
@@ -1354,7 +1396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -1392,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N14" s="4">
         <v>95</v>
@@ -1404,7 +1446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
@@ -1442,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N15" s="4">
         <v>95</v>
@@ -1454,7 +1496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>69</v>
       </c>
@@ -1492,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N16" s="4">
         <v>95</v>
@@ -1542,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N17" s="4">
         <v>97</v>
@@ -1592,7 +1634,7 @@
         <v>57</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N18" s="4">
         <v>95</v>
@@ -1642,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N19" s="4">
         <v>95</v>
@@ -1692,7 +1734,7 @@
         <v>49</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N20" s="4">
         <v>95</v>
@@ -1742,7 +1784,7 @@
         <v>52</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N21" s="4">
         <v>95</v>
@@ -1754,15 +1796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>90</v>
-      </c>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J24" s="5"/>
     </row>
     <row r="26" spans="1:16" ht="64" x14ac:dyDescent="0.2">
@@ -1780,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
